--- a/Files/Tabla_sensores.xlsx
+++ b/Files/Tabla_sensores.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - UPNA\DeWood Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javie\Documents\DeWood GitHub\DeWood\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5482FBC9-719E-4218-ADB6-CB3AF5FBCC63}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F4A27DC-6E6D-4BFF-950F-C6ED992156E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Teros11" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="104">
   <si>
     <t>Sensor</t>
   </si>
@@ -53,9 +53,6 @@
     <t>Subplot</t>
   </si>
   <si>
-    <t>Sample</t>
-  </si>
-  <si>
     <t>Port</t>
   </si>
   <si>
@@ -342,6 +339,15 @@
   </si>
   <si>
     <t>LABEL</t>
+  </si>
+  <si>
+    <t>Data_logger</t>
+  </si>
+  <si>
+    <t>Sensor_code</t>
+  </si>
+  <si>
+    <t>sample_code</t>
   </si>
 </sst>
 </file>
@@ -671,19 +677,19 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -692,7 +698,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -701,30 +707,30 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F2">
         <v>6</v>
@@ -736,31 +742,31 @@
         <v>378</v>
       </c>
       <c r="I2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K2" t="str">
         <f>_xlfn.CONCAT(J2,E2)</f>
         <v>S1WC_1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F3">
         <v>6</v>
@@ -772,31 +778,31 @@
         <v>379</v>
       </c>
       <c r="I3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K3" t="str">
         <f t="shared" ref="K3:K19" si="0">_xlfn.CONCAT(J3,E3)</f>
         <v>S1WC_2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F4">
         <v>6</v>
@@ -808,31 +814,31 @@
         <v>380</v>
       </c>
       <c r="I4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K4" t="str">
         <f t="shared" si="0"/>
         <v>S1WC_3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F5">
         <v>6</v>
@@ -844,31 +850,31 @@
         <v>381</v>
       </c>
       <c r="I5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K5" t="str">
         <f t="shared" si="0"/>
         <v>S1WC_4</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F6">
         <v>6</v>
@@ -880,31 +886,31 @@
         <v>382</v>
       </c>
       <c r="I6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K6" t="str">
         <f t="shared" si="0"/>
         <v>S1WC_5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F7">
         <v>6</v>
@@ -916,31 +922,31 @@
         <v>383</v>
       </c>
       <c r="I7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K7" t="str">
         <f t="shared" si="0"/>
         <v>S1WC_6</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
       <c r="E8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -952,28 +958,28 @@
         <v>121</v>
       </c>
       <c r="J8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K8" t="str">
         <f t="shared" si="0"/>
         <v>S2WC_1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
         <v>10</v>
       </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
       <c r="E9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -985,28 +991,28 @@
         <v>122</v>
       </c>
       <c r="J9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K9" t="str">
         <f t="shared" si="0"/>
         <v>S2WC_2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
         <v>10</v>
       </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
       <c r="E10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1018,28 +1024,28 @@
         <v>123</v>
       </c>
       <c r="J10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K10" t="str">
         <f t="shared" si="0"/>
         <v>S2WC_3</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
         <v>10</v>
       </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
       <c r="E11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -1051,28 +1057,28 @@
         <v>124</v>
       </c>
       <c r="J11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K11" t="str">
         <f t="shared" si="0"/>
         <v>S2WC_4</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
         <v>10</v>
       </c>
-      <c r="D12" t="s">
-        <v>11</v>
-      </c>
       <c r="E12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -1084,28 +1090,28 @@
         <v>125</v>
       </c>
       <c r="J12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K12" t="str">
         <f t="shared" si="0"/>
         <v>S2WC_5</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
         <v>10</v>
       </c>
-      <c r="D13" t="s">
-        <v>11</v>
-      </c>
       <c r="E13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -1117,28 +1123,28 @@
         <v>131</v>
       </c>
       <c r="J13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K13" t="str">
         <f t="shared" si="0"/>
         <v>S2WC_6</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
         <v>12</v>
       </c>
-      <c r="D14" t="s">
-        <v>13</v>
-      </c>
       <c r="E14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F14">
         <v>3</v>
@@ -1150,28 +1156,28 @@
         <v>134</v>
       </c>
       <c r="J14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K14" t="str">
         <f t="shared" si="0"/>
         <v>S3WC_1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
         <v>12</v>
       </c>
-      <c r="D15" t="s">
-        <v>13</v>
-      </c>
       <c r="E15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F15">
         <v>3</v>
@@ -1183,28 +1189,28 @@
         <v>135</v>
       </c>
       <c r="J15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K15" t="str">
         <f t="shared" si="0"/>
         <v>S3WC_2</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
         <v>12</v>
       </c>
-      <c r="D16" t="s">
-        <v>13</v>
-      </c>
       <c r="E16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F16">
         <v>3</v>
@@ -1216,28 +1222,28 @@
         <v>136</v>
       </c>
       <c r="J16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K16" t="str">
         <f t="shared" si="0"/>
         <v>S3WC_3</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s">
         <v>12</v>
       </c>
-      <c r="D17" t="s">
-        <v>13</v>
-      </c>
       <c r="E17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F17">
         <v>3</v>
@@ -1249,28 +1255,28 @@
         <v>137</v>
       </c>
       <c r="J17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K17" t="str">
         <f t="shared" si="0"/>
         <v>S3WC_4</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s">
         <v>12</v>
       </c>
-      <c r="D18" t="s">
-        <v>13</v>
-      </c>
       <c r="E18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F18">
         <v>3</v>
@@ -1282,28 +1288,28 @@
         <v>138</v>
       </c>
       <c r="J18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K18" t="str">
         <f t="shared" si="0"/>
         <v>S3WC_5</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s">
         <v>12</v>
       </c>
-      <c r="D19" t="s">
-        <v>13</v>
-      </c>
       <c r="E19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F19">
         <v>3</v>
@@ -1315,131 +1321,131 @@
         <v>139</v>
       </c>
       <c r="J19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K19" t="str">
         <f t="shared" si="0"/>
         <v>S3WC_6</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s">
         <v>14</v>
       </c>
-      <c r="D20" t="s">
-        <v>15</v>
-      </c>
       <c r="E20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s">
         <v>14</v>
       </c>
-      <c r="D21" t="s">
-        <v>15</v>
-      </c>
       <c r="E21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I21" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" t="s">
         <v>16</v>
       </c>
-      <c r="D22" t="s">
-        <v>17</v>
-      </c>
       <c r="E22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I22" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" t="s">
         <v>16</v>
       </c>
-      <c r="D23" t="s">
-        <v>17</v>
-      </c>
       <c r="E23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I23" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" t="s">
         <v>18</v>
       </c>
-      <c r="D24" t="s">
-        <v>19</v>
-      </c>
       <c r="E24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" t="s">
         <v>18</v>
       </c>
-      <c r="D25" t="s">
-        <v>19</v>
-      </c>
       <c r="E25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1451,21 +1457,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFA1589C-1CB1-40DD-AEA4-F7FE34DB5FB6}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" t="s">
         <v>51</v>
-      </c>
-      <c r="B1" t="s">
-        <v>52</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
@@ -1474,9 +1480,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1488,41 +1494,41 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -1534,9 +1540,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -1548,9 +1554,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -1562,9 +1568,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -1576,9 +1582,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -1590,9 +1596,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -1604,9 +1610,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -1618,9 +1624,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -1632,9 +1638,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -1646,9 +1652,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -1660,49 +1666,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>39</v>
-      </c>
-      <c r="B20">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>40</v>
       </c>
       <c r="B21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -1711,9 +1717,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -1722,36 +1728,36 @@
         <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B27">
         <v>26</v>
@@ -1763,9 +1769,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B28">
         <v>27</v>
@@ -1777,9 +1783,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B29">
         <v>28</v>
@@ -1791,9 +1797,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B30">
         <v>29</v>
@@ -1805,9 +1811,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B31">
         <v>30</v>
@@ -1826,276 +1832,538 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F1740E3-1D49-495E-A494-FAA71B3B0104}">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="str">
+        <f>LEFT(A2,5)</f>
+        <v>A0022</v>
+      </c>
+      <c r="C2" t="str">
+        <f>RIGHT(A2,2)</f>
+        <v>A0</v>
+      </c>
+      <c r="D2">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" ref="B3:B33" si="0">LEFT(A3,5)</f>
+        <v>A0022</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C33" si="1">RIGHT(A3,2)</f>
+        <v>A1</v>
+      </c>
+      <c r="D3">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>A0022</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="1"/>
+        <v>A2</v>
+      </c>
+      <c r="D4">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>A0022</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="1"/>
+        <v>A3</v>
+      </c>
+      <c r="D5">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>A0022</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="1"/>
+        <v>A4</v>
+      </c>
+      <c r="D6">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>A0022</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="1"/>
+        <v>A5</v>
+      </c>
+      <c r="D7">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>A0022</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="1"/>
+        <v>A6</v>
+      </c>
+      <c r="D8">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>A0022</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="1"/>
+        <v>A7</v>
+      </c>
+      <c r="D9">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>64</v>
       </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>A0025</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="1"/>
+        <v>A0</v>
+      </c>
+      <c r="D10">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>65</v>
       </c>
-      <c r="B10">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>A0025</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="1"/>
+        <v>A1</v>
+      </c>
+      <c r="D11">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>66</v>
       </c>
-      <c r="B11">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>A0025</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="1"/>
+        <v>A2</v>
+      </c>
+      <c r="D12">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>67</v>
       </c>
-      <c r="B12">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>A0025</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="1"/>
+        <v>A3</v>
+      </c>
+      <c r="D13">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>68</v>
       </c>
-      <c r="B13">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>A0025</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="1"/>
+        <v>A4</v>
+      </c>
+      <c r="D14">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>69</v>
       </c>
-      <c r="B14">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>A0025</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="1"/>
+        <v>A5</v>
+      </c>
+      <c r="D15">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>70</v>
       </c>
-      <c r="B15">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>A0025</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="1"/>
+        <v>A6</v>
+      </c>
+      <c r="D16">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>71</v>
       </c>
-      <c r="B16">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>A0025</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="1"/>
+        <v>A7</v>
+      </c>
+      <c r="D17">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>72</v>
       </c>
-      <c r="B17">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>A0012</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="1"/>
+        <v>A0</v>
+      </c>
+      <c r="D18">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>73</v>
       </c>
-      <c r="B18">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>A0012</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="1"/>
+        <v>A1</v>
+      </c>
+      <c r="D19">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>74</v>
       </c>
-      <c r="B19">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>A0012</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="1"/>
+        <v>A2</v>
+      </c>
+      <c r="D20">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>75</v>
       </c>
-      <c r="B20">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>A0012</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="1"/>
+        <v>A3</v>
+      </c>
+      <c r="D21">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>76</v>
       </c>
-      <c r="B21">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>A0012</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="1"/>
+        <v>A4</v>
+      </c>
+      <c r="D22">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>77</v>
       </c>
-      <c r="B22">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>A0012</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="1"/>
+        <v>A5</v>
+      </c>
+      <c r="D23">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>78</v>
       </c>
-      <c r="B23">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v>A0012</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="1"/>
+        <v>A6</v>
+      </c>
+      <c r="D24">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>79</v>
       </c>
-      <c r="B24">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v>A0012</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="1"/>
+        <v>A7</v>
+      </c>
+      <c r="D25">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>80</v>
       </c>
-      <c r="B25">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>A0033</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="1"/>
+        <v>A0</v>
+      </c>
+      <c r="D26">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>81</v>
       </c>
-      <c r="B26">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>A0033</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="1"/>
+        <v>A1</v>
+      </c>
+      <c r="D27">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>82</v>
       </c>
-      <c r="B27">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>A0033</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="1"/>
+        <v>A2</v>
+      </c>
+      <c r="D28">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>83</v>
       </c>
-      <c r="B28">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="B29" t="str">
+        <f t="shared" si="0"/>
+        <v>A0033</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="1"/>
+        <v>A3</v>
+      </c>
+      <c r="D29">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>84</v>
       </c>
-      <c r="B29">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="B30" t="str">
+        <f t="shared" si="0"/>
+        <v>A0033</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="1"/>
+        <v>A4</v>
+      </c>
+      <c r="D30">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>85</v>
       </c>
-      <c r="B30">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="B31" t="str">
+        <f t="shared" si="0"/>
+        <v>A0033</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="1"/>
+        <v>A5</v>
+      </c>
+      <c r="D31">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>86</v>
       </c>
-      <c r="B31">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="B32" t="str">
+        <f t="shared" si="0"/>
+        <v>A0033</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="1"/>
+        <v>A6</v>
+      </c>
+      <c r="D32">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>87</v>
       </c>
-      <c r="B32">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="B33" t="str">
+        <f t="shared" si="0"/>
+        <v>A0033</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="1"/>
+        <v>A7</v>
+      </c>
+      <c r="D33" t="s">
         <v>88</v>
-      </c>
-      <c r="B33" t="s">
-        <v>89</v>
       </c>
     </row>
   </sheetData>
